--- a/data/tehilim-data/37.xlsx
+++ b/data/tehilim-data/37.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="483">
   <si>
     <t>original</t>
   </si>
@@ -934,10 +934,16 @@
     <t>был</t>
   </si>
   <si>
-    <t>גם-זקנתי</t>
-  </si>
-  <si>
-    <t>также старость</t>
+    <t>גם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">также </t>
+  </si>
+  <si>
+    <t>זקנתי</t>
+  </si>
+  <si>
+    <t>старость</t>
   </si>
   <si>
     <t>ראיתי</t>
@@ -1472,21 +1478,27 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1495,36 +1507,43 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,1230 +1768,1384 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.0</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>2.0</v>
       </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>3.0</v>
       </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>4.0</v>
       </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>5.0</v>
       </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>6.0</v>
       </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>7.0</v>
       </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="C49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>8.0</v>
       </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="C62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>9.0</v>
       </c>
+      <c r="C66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>10.0</v>
       </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="C78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="C79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="C80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>11.0</v>
       </c>
+      <c r="C82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="C83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="C84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="C85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="C86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="C87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>12.0</v>
       </c>
+      <c r="C88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="C89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="C90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="C91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="C92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>13.0</v>
       </c>
+      <c r="C93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="C94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="C95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="C97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="C98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="C99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>14.0</v>
       </c>
+      <c r="C100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="C101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="C102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="C103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="C104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="C105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="C106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="C107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="C108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="C109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>15.0</v>
       </c>
+      <c r="C110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="C111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="C112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="C113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="C114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="C115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>16.0</v>
       </c>
+      <c r="C116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="C117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>202</v>
       </c>
+      <c r="C118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="C119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="C120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="C121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>17.0</v>
       </c>
+      <c r="C122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="C124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>212</v>
       </c>
+      <c r="C125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="C126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>214</v>
       </c>
+      <c r="C127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>216</v>
       </c>
+      <c r="C128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="C129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>18.0</v>
       </c>
+      <c r="C130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="C131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="C132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>222</v>
       </c>
+      <c r="C133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="C134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>226</v>
       </c>
+      <c r="C135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="C136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="C137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>18.0</v>
       </c>
+      <c r="C138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="C140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>236</v>
       </c>
+      <c r="C141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>238</v>
       </c>
+      <c r="C142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="C143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>242</v>
       </c>
+      <c r="C144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="C145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="5">
         <v>19.0</v>
       </c>
+      <c r="C146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="C148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>247</v>
       </c>
+      <c r="C149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>249</v>
       </c>
+      <c r="C150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="C151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="C152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="C153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
@@ -2981,6 +3154,7 @@
       <c r="B155" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="C155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
@@ -2989,6 +3163,7 @@
       <c r="B156" s="7" t="s">
         <v>258</v>
       </c>
+      <c r="C156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
@@ -2997,6 +3172,7 @@
       <c r="B157" s="7" t="s">
         <v>260</v>
       </c>
+      <c r="C157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
@@ -3005,14 +3181,16 @@
       <c r="B158" s="7" t="s">
         <v>258</v>
       </c>
+      <c r="C158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="5">
         <v>20.0</v>
       </c>
+      <c r="C159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
@@ -3021,6 +3199,7 @@
       <c r="B160" s="7" t="s">
         <v>263</v>
       </c>
+      <c r="C160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
@@ -3029,6 +3208,7 @@
       <c r="B161" s="7" t="s">
         <v>264</v>
       </c>
+      <c r="C161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
@@ -3037,6 +3217,7 @@
       <c r="B162" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="C162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
@@ -3045,6 +3226,7 @@
       <c r="B163" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="C163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
@@ -3053,6 +3235,7 @@
       <c r="B164" s="7" t="s">
         <v>270</v>
       </c>
+      <c r="C164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
@@ -3061,6 +3244,7 @@
       <c r="B165" s="7" t="s">
         <v>272</v>
       </c>
+      <c r="C165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
@@ -3069,14 +3253,16 @@
       <c r="B166" s="7" t="s">
         <v>274</v>
       </c>
+      <c r="C166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B167" s="8">
         <v>21.0</v>
       </c>
+      <c r="C167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
@@ -3085,14 +3271,16 @@
       <c r="B168" s="6" t="s">
         <v>277</v>
       </c>
+      <c r="C168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="C169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
@@ -3101,6 +3289,7 @@
       <c r="B170" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="C170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
@@ -3109,6 +3298,7 @@
       <c r="B171" s="7" t="s">
         <v>281</v>
       </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
@@ -3117,14 +3307,16 @@
       <c r="B172" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="C172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B173" s="8">
         <v>22.0</v>
       </c>
+      <c r="C173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="5" t="s">
@@ -3133,6 +3325,7 @@
       <c r="B174" s="7" t="s">
         <v>286</v>
       </c>
+      <c r="C174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="s">
@@ -3141,6 +3334,7 @@
       <c r="B175" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="C175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
@@ -3149,6 +3343,7 @@
       <c r="B176" s="7" t="s">
         <v>290</v>
       </c>
+      <c r="C176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
@@ -3157,14 +3352,16 @@
       <c r="B177" s="7" t="s">
         <v>292</v>
       </c>
+      <c r="C177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B178" s="8">
         <v>23.0</v>
       </c>
+      <c r="C178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
@@ -3173,6 +3370,7 @@
       <c r="B179" s="7" t="s">
         <v>295</v>
       </c>
+      <c r="C179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
@@ -3181,6 +3379,7 @@
       <c r="B180" s="7" t="s">
         <v>297</v>
       </c>
+      <c r="C180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
@@ -3189,6 +3388,7 @@
       <c r="B181" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="C181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
@@ -3197,6 +3397,7 @@
       <c r="B182" s="7" t="s">
         <v>299</v>
       </c>
+      <c r="C182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
@@ -3205,14 +3406,16 @@
       <c r="B183" s="7" t="s">
         <v>301</v>
       </c>
+      <c r="C183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B184" s="8">
         <v>24.0</v>
       </c>
+      <c r="C184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
@@ -3221,6 +3424,7 @@
       <c r="B185" s="7" t="s">
         <v>304</v>
       </c>
+      <c r="C185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
@@ -3229,30 +3433,34 @@
       <c r="B186" s="7" t="s">
         <v>306</v>
       </c>
+      <c r="C186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="10" t="s">
         <v>308</v>
       </c>
+      <c r="C187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>266</v>
-      </c>
+      <c r="A188" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>310</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
@@ -3261,6 +3469,7 @@
       <c r="B190" s="7" t="s">
         <v>312</v>
       </c>
+      <c r="C190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
@@ -3269,6 +3478,7 @@
       <c r="B191" s="7" t="s">
         <v>314</v>
       </c>
+      <c r="C191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
@@ -3277,6 +3487,7 @@
       <c r="B192" s="7" t="s">
         <v>316</v>
       </c>
+      <c r="C192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
@@ -3285,6 +3496,7 @@
       <c r="B193" s="7" t="s">
         <v>318</v>
       </c>
+      <c r="C193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
@@ -3293,70 +3505,79 @@
       <c r="B194" s="7" t="s">
         <v>320</v>
       </c>
+      <c r="C194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B195" s="8">
-        <v>25.0</v>
-      </c>
+      <c r="B195" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B196" s="7" t="s">
         <v>323</v>
       </c>
+      <c r="B196" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="C196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>272</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>274</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>316</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>326</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B201" s="8">
-        <v>26.0</v>
-      </c>
+      <c r="B201" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B202" s="7" t="s">
         <v>329</v>
       </c>
+      <c r="B202" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="C202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
@@ -3365,70 +3586,79 @@
       <c r="B203" s="7" t="s">
         <v>331</v>
       </c>
+      <c r="C203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="5" t="s">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="5" t="s">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>333</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B208" s="8">
-        <v>27.0</v>
-      </c>
+      <c r="B208" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B209" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="C209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="5" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="s">
-        <v>336</v>
+        <v>121</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>337</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
@@ -3437,46 +3667,52 @@
       <c r="B212" s="7" t="s">
         <v>339</v>
       </c>
+      <c r="C212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="5" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>266</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="5" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>341</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="7" t="s">
         <v>343</v>
       </c>
+      <c r="C215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="5" t="s">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
@@ -3485,6 +3721,7 @@
       <c r="B218" s="7" t="s">
         <v>347</v>
       </c>
+      <c r="C218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
@@ -3493,78 +3730,88 @@
       <c r="B219" s="7" t="s">
         <v>349</v>
       </c>
+      <c r="C219" s="2"/>
     </row>
     <row r="220">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B220" s="8">
-        <v>28.0</v>
-      </c>
+      <c r="B220" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>316</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B221" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="C221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="5" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>352</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B224" s="8">
-        <v>29.0</v>
-      </c>
+      <c r="B224" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>354</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B225" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="C225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="5" t="s">
-        <v>355</v>
+        <v>215</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>356</v>
       </c>
+      <c r="C226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>358</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="5" t="s">
@@ -3573,38 +3820,43 @@
       <c r="B229" s="7" t="s">
         <v>360</v>
       </c>
+      <c r="C229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B230" s="8">
-        <v>30.0</v>
-      </c>
+      <c r="B230" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B231" s="7" t="s">
         <v>363</v>
       </c>
+      <c r="B231" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="C231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="5" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>366</v>
       </c>
+      <c r="C233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="5" t="s">
@@ -3613,6 +3865,7 @@
       <c r="B234" s="7" t="s">
         <v>368</v>
       </c>
+      <c r="C234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="5" t="s">
@@ -3621,38 +3874,43 @@
       <c r="B235" s="7" t="s">
         <v>370</v>
       </c>
+      <c r="C235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="5" t="s">
         <v>371</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>366</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="5" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>339</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B238" s="8">
-        <v>31.0</v>
-      </c>
+      <c r="A238" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B239" s="7" t="s">
         <v>374</v>
       </c>
+      <c r="B239" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="C239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
@@ -3661,6 +3919,7 @@
       <c r="B240" s="7" t="s">
         <v>376</v>
       </c>
+      <c r="C240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="5" t="s">
@@ -3669,22 +3928,25 @@
       <c r="B241" s="7" t="s">
         <v>378</v>
       </c>
+      <c r="C241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>231</v>
+        <v>379</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>232</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="5" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>380</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
@@ -3693,46 +3955,52 @@
       <c r="B244" s="7" t="s">
         <v>382</v>
       </c>
+      <c r="C244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B245" s="8">
-        <v>32.0</v>
-      </c>
+      <c r="B245" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B246" s="7" t="s">
         <v>385</v>
       </c>
+      <c r="B246" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="C246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B248" s="7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="9" t="s">
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>388</v>
       </c>
+      <c r="C249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
@@ -3741,30 +4009,34 @@
       <c r="B250" s="7" t="s">
         <v>390</v>
       </c>
+      <c r="C250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B251" s="8">
-        <v>33.0</v>
-      </c>
+      <c r="B251" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B252" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="C252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="5" t="s">
-        <v>392</v>
+        <v>121</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>393</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
@@ -3773,150 +4045,169 @@
       <c r="B254" s="7" t="s">
         <v>395</v>
       </c>
+      <c r="C254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>266</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>397</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6" t="s">
         <v>399</v>
       </c>
+      <c r="C257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B258" s="8">
-        <v>34.0</v>
-      </c>
+      <c r="B258" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B259" s="7" t="s">
         <v>402</v>
       </c>
+      <c r="B259" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="C259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>405</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="s">
-        <v>93</v>
+        <v>406</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>406</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B263" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B263" s="7" t="s">
         <v>408</v>
       </c>
+      <c r="C263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="6" t="s">
         <v>410</v>
       </c>
+      <c r="C264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="5" t="s">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>412</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>264</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
-        <v>413</v>
+        <v>175</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>414</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C268" s="2"/>
     </row>
     <row r="269">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B269" s="8">
-        <v>35.0</v>
-      </c>
+      <c r="B269" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>416</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B270" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="C270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="5" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>264</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>418</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="5" t="s">
@@ -3925,6 +4216,7 @@
       <c r="B273" s="6" t="s">
         <v>420</v>
       </c>
+      <c r="C273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="5" t="s">
@@ -3933,30 +4225,34 @@
       <c r="B274" s="6" t="s">
         <v>422</v>
       </c>
+      <c r="C274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>424</v>
       </c>
+      <c r="C275" s="2"/>
     </row>
     <row r="276">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B276" s="8">
-        <v>36.0</v>
-      </c>
+      <c r="B276" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B277" s="7" t="s">
         <v>427</v>
       </c>
+      <c r="B277" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="C277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="5" t="s">
@@ -3965,54 +4261,61 @@
       <c r="B278" s="7" t="s">
         <v>429</v>
       </c>
+      <c r="C278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B280" s="6" t="s">
         <v>432</v>
       </c>
+      <c r="B280" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>266</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
-        <v>433</v>
+        <v>265</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>434</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C282" s="2"/>
     </row>
     <row r="283">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B283" s="8">
-        <v>37.0</v>
-      </c>
+      <c r="B283" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B284" s="7" t="s">
         <v>437</v>
       </c>
+      <c r="B284" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="C284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="5" t="s">
@@ -4021,6 +4324,7 @@
       <c r="B285" s="7" t="s">
         <v>439</v>
       </c>
+      <c r="C285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="5" t="s">
@@ -4029,6 +4333,7 @@
       <c r="B286" s="7" t="s">
         <v>441</v>
       </c>
+      <c r="C286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="5" t="s">
@@ -4037,22 +4342,25 @@
       <c r="B287" s="7" t="s">
         <v>443</v>
       </c>
+      <c r="C287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="5" t="s">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="5" t="s">
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>445</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="5" t="s">
@@ -4061,158 +4369,178 @@
       <c r="B290" s="7" t="s">
         <v>447</v>
       </c>
+      <c r="C290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B291" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B292" s="8">
-        <v>38.0</v>
-      </c>
+      <c r="B292" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B293" s="7" t="s">
         <v>451</v>
       </c>
+      <c r="B293" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="C293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="7" t="s">
         <v>453</v>
       </c>
+      <c r="C294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="6" t="s">
         <v>455</v>
       </c>
+      <c r="C295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="5" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>445</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="5" t="s">
-        <v>175</v>
+        <v>446</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="5" t="s">
-        <v>456</v>
+        <v>175</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>457</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C298" s="2"/>
     </row>
     <row r="299">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B299" s="8">
-        <v>39.0</v>
-      </c>
+      <c r="B299" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B300" s="7" t="s">
         <v>460</v>
       </c>
+      <c r="B300" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="C300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="5" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>216</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>286</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="5" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>462</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="5" t="s">
-        <v>235</v>
+        <v>463</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>463</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="5" t="s">
-        <v>464</v>
+        <v>235</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>465</v>
       </c>
+      <c r="C305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B306" s="8">
-        <v>40.0</v>
-      </c>
+      <c r="B306" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B307" s="7" t="s">
         <v>468</v>
       </c>
+      <c r="B307" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="C307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="5" t="s">
-        <v>121</v>
+        <v>469</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="5" t="s">
-        <v>469</v>
+        <v>121</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>470</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="5" t="s">
@@ -4221,6 +4549,7 @@
       <c r="B310" s="7" t="s">
         <v>472</v>
       </c>
+      <c r="C310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="5" t="s">
@@ -4229,6 +4558,7 @@
       <c r="B311" s="7" t="s">
         <v>474</v>
       </c>
+      <c r="C311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="5" t="s">
@@ -4237,22 +4567,25 @@
       <c r="B312" s="7" t="s">
         <v>476</v>
       </c>
+      <c r="C312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="5" t="s">
-        <v>16</v>
+        <v>477</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="s">
-        <v>477</v>
+        <v>16</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>478</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="5" t="s">
@@ -4261,324 +4594,334 @@
       <c r="B315" s="7" t="s">
         <v>480</v>
       </c>
+      <c r="C315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="2"/>
+      <c r="A316" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="2"/>
+      <c r="A317" s="12"/>
     </row>
     <row r="318">
-      <c r="A318" s="2"/>
+      <c r="A318" s="12"/>
     </row>
     <row r="319">
-      <c r="A319" s="2"/>
+      <c r="A319" s="12"/>
     </row>
     <row r="320">
-      <c r="A320" s="2"/>
+      <c r="A320" s="12"/>
     </row>
     <row r="321">
-      <c r="A321" s="2"/>
+      <c r="A321" s="12"/>
     </row>
     <row r="322">
-      <c r="A322" s="2"/>
+      <c r="A322" s="12"/>
     </row>
     <row r="323">
-      <c r="A323" s="2"/>
+      <c r="A323" s="12"/>
     </row>
     <row r="324">
-      <c r="A324" s="2"/>
+      <c r="A324" s="12"/>
     </row>
     <row r="325">
-      <c r="A325" s="2"/>
+      <c r="A325" s="12"/>
     </row>
     <row r="326">
-      <c r="A326" s="2"/>
+      <c r="A326" s="12"/>
     </row>
     <row r="327">
-      <c r="A327" s="2"/>
+      <c r="A327" s="12"/>
     </row>
     <row r="328">
-      <c r="A328" s="2"/>
+      <c r="A328" s="12"/>
     </row>
     <row r="329">
-      <c r="A329" s="2"/>
+      <c r="A329" s="12"/>
     </row>
     <row r="330">
-      <c r="A330" s="2"/>
+      <c r="A330" s="12"/>
     </row>
     <row r="331">
-      <c r="A331" s="2"/>
+      <c r="A331" s="12"/>
     </row>
     <row r="332">
-      <c r="A332" s="2"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="2"/>
+      <c r="A332" s="12"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="12"/>
     </row>
     <row r="335">
-      <c r="A335" s="2"/>
+      <c r="A335" s="12"/>
     </row>
     <row r="336">
-      <c r="A336" s="2"/>
+      <c r="A336" s="12"/>
     </row>
     <row r="337">
-      <c r="A337" s="2"/>
+      <c r="A337" s="12"/>
     </row>
     <row r="338">
-      <c r="A338" s="2"/>
+      <c r="A338" s="12"/>
     </row>
     <row r="339">
-      <c r="A339" s="2"/>
+      <c r="A339" s="12"/>
     </row>
     <row r="340">
-      <c r="A340" s="2"/>
+      <c r="A340" s="12"/>
     </row>
     <row r="341">
-      <c r="A341" s="2"/>
+      <c r="A341" s="12"/>
     </row>
     <row r="342">
-      <c r="A342" s="2"/>
+      <c r="A342" s="12"/>
     </row>
     <row r="343">
-      <c r="A343" s="2"/>
+      <c r="A343" s="12"/>
     </row>
     <row r="344">
-      <c r="A344" s="2"/>
+      <c r="A344" s="12"/>
     </row>
     <row r="345">
-      <c r="A345" s="2"/>
+      <c r="A345" s="12"/>
     </row>
     <row r="346">
-      <c r="A346" s="2"/>
+      <c r="A346" s="12"/>
     </row>
     <row r="347">
-      <c r="A347" s="2"/>
+      <c r="A347" s="12"/>
     </row>
     <row r="348">
-      <c r="A348" s="2"/>
+      <c r="A348" s="12"/>
     </row>
     <row r="349">
-      <c r="A349" s="2"/>
+      <c r="A349" s="12"/>
     </row>
     <row r="350">
-      <c r="A350" s="2"/>
+      <c r="A350" s="12"/>
     </row>
     <row r="351">
-      <c r="A351" s="2"/>
+      <c r="A351" s="12"/>
     </row>
     <row r="352">
-      <c r="A352" s="2"/>
+      <c r="A352" s="12"/>
     </row>
     <row r="353">
-      <c r="A353" s="2"/>
+      <c r="A353" s="12"/>
     </row>
     <row r="354">
-      <c r="A354" s="2"/>
+      <c r="A354" s="12"/>
     </row>
     <row r="355">
-      <c r="A355" s="2"/>
+      <c r="A355" s="12"/>
     </row>
     <row r="356">
-      <c r="A356" s="2"/>
+      <c r="A356" s="12"/>
     </row>
     <row r="357">
-      <c r="A357" s="2"/>
+      <c r="A357" s="12"/>
     </row>
     <row r="358">
-      <c r="A358" s="2"/>
+      <c r="A358" s="12"/>
     </row>
     <row r="359">
-      <c r="A359" s="2"/>
+      <c r="A359" s="12"/>
     </row>
     <row r="360">
-      <c r="A360" s="2"/>
+      <c r="A360" s="12"/>
     </row>
     <row r="361">
-      <c r="A361" s="2"/>
+      <c r="A361" s="12"/>
     </row>
     <row r="362">
-      <c r="A362" s="2"/>
+      <c r="A362" s="12"/>
     </row>
     <row r="363">
-      <c r="A363" s="2"/>
+      <c r="A363" s="12"/>
     </row>
     <row r="364">
-      <c r="A364" s="2"/>
+      <c r="A364" s="12"/>
     </row>
     <row r="365">
-      <c r="A365" s="2"/>
+      <c r="A365" s="12"/>
     </row>
     <row r="366">
-      <c r="A366" s="2"/>
+      <c r="A366" s="12"/>
     </row>
     <row r="367">
-      <c r="A367" s="2"/>
+      <c r="A367" s="12"/>
     </row>
     <row r="368">
-      <c r="A368" s="2"/>
+      <c r="A368" s="12"/>
     </row>
     <row r="369">
-      <c r="A369" s="2"/>
+      <c r="A369" s="12"/>
     </row>
     <row r="370">
-      <c r="A370" s="2"/>
+      <c r="A370" s="12"/>
     </row>
     <row r="371">
-      <c r="A371" s="2"/>
+      <c r="A371" s="12"/>
     </row>
     <row r="372">
-      <c r="A372" s="2"/>
+      <c r="A372" s="12"/>
     </row>
     <row r="373">
-      <c r="A373" s="2"/>
+      <c r="A373" s="12"/>
     </row>
     <row r="374">
-      <c r="A374" s="2"/>
+      <c r="A374" s="12"/>
     </row>
     <row r="375">
-      <c r="A375" s="2"/>
+      <c r="A375" s="12"/>
     </row>
     <row r="376">
-      <c r="A376" s="2"/>
+      <c r="A376" s="12"/>
     </row>
     <row r="377">
-      <c r="A377" s="2"/>
+      <c r="A377" s="12"/>
     </row>
     <row r="378">
-      <c r="A378" s="2"/>
+      <c r="A378" s="12"/>
     </row>
     <row r="379">
-      <c r="A379" s="2"/>
+      <c r="A379" s="12"/>
     </row>
     <row r="380">
-      <c r="A380" s="2"/>
+      <c r="A380" s="12"/>
     </row>
     <row r="381">
-      <c r="A381" s="2"/>
+      <c r="A381" s="12"/>
     </row>
     <row r="382">
-      <c r="A382" s="2"/>
+      <c r="A382" s="12"/>
     </row>
     <row r="383">
-      <c r="A383" s="2"/>
+      <c r="A383" s="12"/>
     </row>
     <row r="384">
-      <c r="A384" s="2"/>
+      <c r="A384" s="12"/>
     </row>
     <row r="385">
-      <c r="A385" s="2"/>
+      <c r="A385" s="12"/>
     </row>
     <row r="386">
-      <c r="A386" s="2"/>
+      <c r="A386" s="12"/>
     </row>
     <row r="387">
-      <c r="A387" s="2"/>
+      <c r="A387" s="12"/>
     </row>
     <row r="388">
-      <c r="A388" s="2"/>
+      <c r="A388" s="12"/>
     </row>
     <row r="389">
-      <c r="A389" s="2"/>
+      <c r="A389" s="12"/>
     </row>
     <row r="390">
-      <c r="A390" s="2"/>
+      <c r="A390" s="12"/>
     </row>
     <row r="391">
-      <c r="A391" s="2"/>
+      <c r="A391" s="12"/>
     </row>
     <row r="392">
-      <c r="A392" s="2"/>
+      <c r="A392" s="12"/>
     </row>
     <row r="393">
-      <c r="A393" s="2"/>
+      <c r="A393" s="12"/>
     </row>
     <row r="394">
-      <c r="A394" s="2"/>
+      <c r="A394" s="12"/>
     </row>
     <row r="395">
-      <c r="A395" s="2"/>
+      <c r="A395" s="12"/>
     </row>
     <row r="396">
-      <c r="A396" s="2"/>
+      <c r="A396" s="12"/>
     </row>
     <row r="397">
-      <c r="A397" s="2"/>
+      <c r="A397" s="12"/>
     </row>
     <row r="398">
-      <c r="A398" s="2"/>
+      <c r="A398" s="12"/>
     </row>
     <row r="399">
-      <c r="A399" s="2"/>
+      <c r="A399" s="12"/>
     </row>
     <row r="400">
-      <c r="A400" s="2"/>
+      <c r="A400" s="12"/>
     </row>
     <row r="401">
-      <c r="A401" s="2"/>
+      <c r="A401" s="12"/>
     </row>
     <row r="402">
-      <c r="A402" s="2"/>
+      <c r="A402" s="12"/>
     </row>
     <row r="403">
-      <c r="A403" s="2"/>
+      <c r="A403" s="12"/>
     </row>
     <row r="404">
-      <c r="A404" s="2"/>
+      <c r="A404" s="12"/>
     </row>
     <row r="405">
-      <c r="A405" s="2"/>
+      <c r="A405" s="12"/>
     </row>
     <row r="406">
-      <c r="A406" s="2"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="2"/>
+      <c r="A406" s="12"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="12"/>
     </row>
     <row r="409">
-      <c r="A409" s="2"/>
+      <c r="A409" s="12"/>
     </row>
     <row r="410">
-      <c r="A410" s="2"/>
+      <c r="A410" s="12"/>
     </row>
     <row r="411">
-      <c r="A411" s="2"/>
+      <c r="A411" s="12"/>
     </row>
     <row r="412">
-      <c r="A412" s="2"/>
+      <c r="A412" s="12"/>
     </row>
     <row r="413">
-      <c r="A413" s="2"/>
+      <c r="A413" s="12"/>
     </row>
     <row r="414">
-      <c r="A414" s="2"/>
+      <c r="A414" s="12"/>
     </row>
     <row r="415">
-      <c r="A415" s="2"/>
+      <c r="A415" s="12"/>
     </row>
     <row r="416">
-      <c r="A416" s="2"/>
+      <c r="A416" s="12"/>
     </row>
     <row r="417">
-      <c r="A417" s="2"/>
+      <c r="A417" s="12"/>
     </row>
     <row r="418">
-      <c r="A418" s="2"/>
+      <c r="A418" s="12"/>
     </row>
     <row r="419">
-      <c r="A419" s="2"/>
+      <c r="A419" s="12"/>
     </row>
     <row r="420">
-      <c r="A420" s="2"/>
+      <c r="A420" s="12"/>
     </row>
     <row r="421">
-      <c r="A421" s="2"/>
+      <c r="A421" s="12"/>
     </row>
     <row r="422">
-      <c r="A422" s="2"/>
+      <c r="A422" s="12"/>
     </row>
     <row r="423">
-      <c r="A423" s="2"/>
+      <c r="A423" s="12"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
